--- a/Datos/Database by set/Set with text box/Xlsx sets/Scars of Mirrodin Promos (PSOM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Scars of Mirrodin Promos (PSOM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Memnite</t>
+          <t>('Memnite', ['{0}', 'Artifact Creature — Construct', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{0}</t>
+          <t>('Memoricide', ['{3}{B}', 'Sorcery', 'Choose a nonland card name. Search target player’s graveyard, hand, and library for any number of cards with that name and exile them. Then that player shuffles their library.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artifact Creature — Construct</t>
+          <t>('Steel Hellkite', ['{6}', 'Artifact Creature — Dragon', 'Flying', '{2}: Steel Hellkite gets +1/+0 until end of turn.', '{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Tempered Steel', ['{1}{W}{W}', 'Enchantment', 'Artifact creatures you control get +2/+2.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memoricide</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Choose a nonland card name. Search target player’s graveyard, hand, and library for any number of cards with that name and exile them. Then that player shuffles their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Steel Hellkite</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{2}: Steel Hellkite gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{X}: Destroy each nonland permanent with converted mana cost X whose controller was dealt combat damage by Steel Hellkite this turn. Activate this ability only once each turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Tempered Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Artifact creatures you control get +2/+2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Wurmcoil Engine</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Deathtouch, lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>When Wurmcoil Engine dies, create a 3/3 colorless Wurm artifact creature token with deathtouch and a 3/3 colorless Wurm artifact creature token with lifelink.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Wurmcoil Engine', ['{6}', 'Artifact Creature — Wurm', 'Deathtouch, lifelink', 'When Wurmcoil Engine dies, create a 3/3 colorless Wurm artifact creature token with deathtouch and a 3/3 colorless Wurm artifact creature token with lifelink.', '6/6'])</t>
         </is>
       </c>
     </row>
